--- a/medicine/Enfance/Eilís_Dillon/Eilís_Dillon.xlsx
+++ b/medicine/Enfance/Eilís_Dillon/Eilís_Dillon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eil%C3%ADs_Dillon</t>
+          <t>Eilís_Dillon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eilís Dillon (7 mars 1920, Galway - 19 juillet 1994) est une femme de lettres irlandaise, poétesse et auteure de littérature d'enfance et de jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eil%C3%ADs_Dillon</t>
+          <t>Eilís_Dillon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle était la nièce de Joseph Plunkett, un des signataires de la Proclamation de la république irlandaise, qui fut exécuté après l'Insurrection de Pâques 1916.
 Élevée par les Ursulines à Sligo, elle travaille brièvement dans l'hôtellerie et la restauration. Elle épouse en 1940 Cormac Ó Cuilleanáin, un universitaire qui a dix-sept ans de plus qu'elle. Ils ont trois enfants, dont le poète Eiléan Ní Chuilleanáin.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eil%C3%ADs_Dillon</t>
+          <t>Eilís_Dillon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Mystère du "San Sebastian" (The San Sebastian), Hachette Idéal-Bibliothèque, 1955.
 Les Garçons de l'île aux renards (A Family of foxes), Hachette Bibliothèque verte, 1967 ; réédition Bibliothèque rose, 1979.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Eil%C3%ADs_Dillon</t>
+          <t>Eilís_Dillon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Eilís Dillon » (voir la liste des auteurs).
 Catalogue général de la Bibliothèque nationale de France
